--- a/biology/Microbiologie/Veillonellaceae/Veillonellaceae.xlsx
+++ b/biology/Microbiologie/Veillonellaceae/Veillonellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Veillonellaceae forment une famille de bactéries de la classe des Negativicutes dans le phylum Bacillota.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,23 +551,129 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Veillonellaceae Rogosa 1971[1].
-Le genre type est : Veillonella Prévot 1933[1].
-Étymologie
-L'étymologie de cette famille Veillonellaceae est la suivante : N.L. fem. dim. n. Veillonella, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe définissant une famille; N.L. fem. pl. n. Veillonellaceae, la famille des Veillonella[2].
-Liste des genres valides
-Selon LPSN  (27 juin 2023)[1], la famille Veillonellaceae comprend 7 genres publiés de manière valide :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Veillonellaceae Rogosa 1971.
+Le genre type est : Veillonella Prévot 1933.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de cette famille Veillonellaceae est la suivante : N.L. fem. dim. n. Veillonella, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe définissant une famille; N.L. fem. pl. n. Veillonellaceae, la famille des Veillonella.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres valides</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (27 juin 2023), la famille Veillonellaceae comprend 7 genres publiés de manière valide :
 Allisonella Garner et al. 2003
 Anaeroglobus Carlier et al. 2002
 Dialister (ex Bergey et al. 1923) Moore &amp; Moore 1994
 Megasphaera Rogosa 1971
 Negativicoccus Marchandin et al. 2010
 Quinella Krumholz et al. 1993
-Veillonella Prévot 1933
-Genres publiés de manière non valide
-Selon LPSN  (27 juin 2023)[1], cette famille comprend au moins 4 genres publiés de manière non valide et dont les noms ne sont pas considérés comme corrects mais comme préférés. Ce sont les suivants :
+Veillonella Prévot 1933</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Veillonellaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Genres publiés de manière non valide</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon LPSN  (27 juin 2023), cette famille comprend au moins 4 genres publiés de manière non valide et dont les noms ne sont pas considérés comme corrects mais comme préférés. Ce sont les suivants :
 "Caecibacter" Ricaboni et al. 2017
 "Colibacter" Mailhe et al. 2017
 "Massilibacillus" Tidjani Alou et al. 2017
